--- a/Modules/Config/Table/StrConfig.xlsx
+++ b/Modules/Config/Table/StrConfig.xlsx
@@ -16655,7 +16655,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="83" defaultRowHeight="14.4"/>
